--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_17_26.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_17_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1614165.317592801</v>
+        <v>1611479.909359358</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673451</v>
+        <v>603248.4937673459</v>
       </c>
     </row>
     <row r="9">
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>259.632696771575</v>
+        <v>212.5689651179052</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="X2" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
     </row>
     <row r="3">
@@ -735,28 +735,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>24.34697458093257</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>243.0662772651992</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -814,31 +814,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>61.54334623930436</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>53.91567440413879</v>
       </c>
     </row>
     <row r="5">
@@ -902,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>383.4773344784373</v>
+        <v>334.7693260009887</v>
       </c>
       <c r="H5" t="n">
-        <v>37.7194985328041</v>
+        <v>309.9490894518052</v>
       </c>
       <c r="I5" t="n">
-        <v>99.3283209164435</v>
+        <v>99.32832091644337</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>143.3232867394216</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>210.4754363151145</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1150114321263</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>383.4773344784383</v>
       </c>
     </row>
     <row r="6">
@@ -972,28 +972,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>66.49055075485748</v>
+        <v>135.8009663029626</v>
       </c>
       <c r="H6" t="n">
-        <v>97.33765040199577</v>
+        <v>97.33765040199576</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>36.28687735603339</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>4.38436933829631</v>
+        <v>4.38436933829621</v>
       </c>
       <c r="S6" t="n">
-        <v>143.0309654321256</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.9471662361903</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>112.8144832306242</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1051,31 +1051,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6977565348686</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>16.41573981707617</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1.928326488848242</v>
+        <v>1.928326488848143</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1108,16 +1108,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>206.2924842707681</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1148,10 +1148,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>216.9542590800314</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>79.77884995491949</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>57.17777278646768</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>125.1090476301063</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1342,19 +1342,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1373,10 +1373,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>144.1709495063283</v>
       </c>
       <c r="E11" t="n">
-        <v>99.09954957404128</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1385,10 +1385,10 @@
         <v>410.3498598144164</v>
       </c>
       <c r="H11" t="n">
-        <v>288.7511433632822</v>
+        <v>288.7511433632823</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>19.53007201345008</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>96.15636898111883</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>201.4146274292354</v>
+        <v>201.4146274292355</v>
       </c>
       <c r="U11" t="n">
         <v>250.949422691779</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.6934939670195</v>
       </c>
       <c r="H12" t="n">
-        <v>86.64179915749273</v>
+        <v>86.64179915749278</v>
       </c>
       <c r="I12" t="n">
-        <v>8.282546271489892</v>
+        <v>8.282546271490077</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>122.4601525254633</v>
+        <v>122.4601525254634</v>
       </c>
       <c r="T12" t="n">
         <v>189.4832755487706</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>175.3461914257863</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.7692889308208</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>77.3981108762854</v>
+        <v>77.3981108762856</v>
       </c>
       <c r="S13" t="n">
-        <v>185.2985930389547</v>
+        <v>185.2985930389548</v>
       </c>
       <c r="T13" t="n">
-        <v>218.4529121465557</v>
+        <v>218.4529121465558</v>
       </c>
       <c r="U13" t="n">
         <v>286.1978462422561</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>280.5596774126277</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1622,7 +1622,7 @@
         <v>409.8432760127576</v>
       </c>
       <c r="H14" t="n">
-        <v>233.271565867252</v>
+        <v>233.2715658672567</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081957</v>
       </c>
       <c r="T14" t="n">
         <v>199.1970568374742</v>
@@ -1701,7 +1701,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561454</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>161.1407682140822</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>64.44601915223878</v>
       </c>
       <c r="G16" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.18075159108352</v>
       </c>
       <c r="S16" t="n">
         <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
         <v>286.1854515484204</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081959</v>
       </c>
       <c r="T17" t="n">
-        <v>148.9055307001832</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9088959876463</v>
+        <v>200.6173698503584</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1938,7 +1938,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H18" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>65.61315037307071</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>64.44601915223878</v>
       </c>
       <c r="G19" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H19" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>67.18075159108356</v>
+        <v>67.18075159108353</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T19" t="n">
         <v>217.4819944627618</v>
@@ -2059,7 +2059,7 @@
         <v>286.1854515484204</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>332.4423155261892</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>356.5845196044223</v>
       </c>
       <c r="G20" t="n">
         <v>409.8432760127576</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>137.7689999502244</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2254,10 +2254,10 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H22" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>62.17400867572971</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U22" t="n">
         <v>286.1854515484204</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444125</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2485,13 +2485,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>120.83264851408</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>108.5813113004298</v>
       </c>
     </row>
     <row r="26">
@@ -2555,13 +2555,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710066</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722607</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>69.8286381302724</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>43.73846614325492</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2795,7 +2795,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.683041620682</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444125</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2962,13 +2962,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>125.2851635392014</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>35.88641949135589</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890413</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3089,7 +3089,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174119</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3187,7 +3187,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3196,13 +3196,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>41.02686156549856</v>
+        <v>120.7871326503973</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012534</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634798</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3472,16 +3472,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>107.4021082756237</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>179.6926686226137</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,13 +3661,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>101.9434035445948</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>22.65115569188732</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3676,7 +3676,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3901,10 +3901,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>14.75529838241429</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3913,10 +3913,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>41.02686156550228</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3989,7 +3989,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187874</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>83.06560892428179</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>42.20606459031083</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>157.477756798422</v>
+        <v>41.00642392276843</v>
       </c>
       <c r="C2" t="n">
-        <v>157.477756798422</v>
+        <v>41.00642392276843</v>
       </c>
       <c r="D2" t="n">
-        <v>157.477756798422</v>
+        <v>41.00642392276843</v>
       </c>
       <c r="E2" t="n">
-        <v>157.477756798422</v>
+        <v>41.00642392276843</v>
       </c>
       <c r="F2" t="n">
-        <v>150.5322560492186</v>
+        <v>34.06092317356496</v>
       </c>
       <c r="G2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I2" t="n">
         <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917573</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052541</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L2" t="n">
         <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030604</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4355,25 +4355,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>900.5447187946892</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>686.1106626298172</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U2" t="n">
-        <v>686.1106626298172</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V2" t="n">
-        <v>423.8554133656</v>
+        <v>840.1393936243026</v>
       </c>
       <c r="W2" t="n">
-        <v>423.8554133656</v>
+        <v>573.7617370571245</v>
       </c>
       <c r="X2" t="n">
-        <v>157.477756798422</v>
+        <v>307.3840804899465</v>
       </c>
       <c r="Y2" t="n">
-        <v>157.477756798422</v>
+        <v>41.00642392276843</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>604.5584496125098</v>
+        <v>641.1186907988871</v>
       </c>
       <c r="C3" t="n">
-        <v>430.1054203313828</v>
+        <v>466.66566151776</v>
       </c>
       <c r="D3" t="n">
-        <v>430.1054203313828</v>
+        <v>317.7312518565088</v>
       </c>
       <c r="E3" t="n">
-        <v>430.1054203313828</v>
+        <v>158.4937968510533</v>
       </c>
       <c r="F3" t="n">
-        <v>283.5708623582677</v>
+        <v>158.4937968510533</v>
       </c>
       <c r="G3" t="n">
-        <v>146.174175907335</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H3" t="n">
-        <v>45.6900140172241</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I3" t="n">
         <v>21.0971104001205</v>
@@ -4431,28 +4431,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T3" t="n">
-        <v>839.7105578442525</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U3" t="n">
-        <v>839.7105578442525</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V3" t="n">
-        <v>604.5584496125098</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W3" t="n">
-        <v>604.5584496125098</v>
+        <v>809.3340278189551</v>
       </c>
       <c r="X3" t="n">
-        <v>604.5584496125098</v>
+        <v>809.3340278189551</v>
       </c>
       <c r="Y3" t="n">
-        <v>604.5584496125098</v>
+        <v>809.3340278189551</v>
       </c>
     </row>
     <row r="4">
@@ -4462,46 +4462,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>635.9084447413728</v>
+        <v>818.7467779998875</v>
       </c>
       <c r="C4" t="n">
-        <v>466.9722618134659</v>
+        <v>649.8105950719806</v>
       </c>
       <c r="D4" t="n">
-        <v>466.9722618134659</v>
+        <v>499.6939556596449</v>
       </c>
       <c r="E4" t="n">
-        <v>466.9722618134659</v>
+        <v>351.7808620772518</v>
       </c>
       <c r="F4" t="n">
-        <v>466.9722618134659</v>
+        <v>204.8909145793414</v>
       </c>
       <c r="G4" t="n">
-        <v>298.4029011684693</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="H4" t="n">
-        <v>144.4815281019473</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="I4" t="n">
-        <v>21.0971104001205</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="J4" t="n">
         <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287946</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551011</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375336</v>
+        <v>527.7368878375339</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227051</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075547</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>926.0629918407077</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>863.8979956393902</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>863.8979956393902</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U4" t="n">
-        <v>863.8979956393902</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V4" t="n">
-        <v>863.8979956393902</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W4" t="n">
-        <v>863.8979956393902</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X4" t="n">
-        <v>635.9084447413728</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="Y4" t="n">
-        <v>635.9084447413728</v>
+        <v>1000.395242830127</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>949.194923871061</v>
+        <v>789.1860474764051</v>
       </c>
       <c r="C5" t="n">
-        <v>949.194923871061</v>
+        <v>789.1860474764051</v>
       </c>
       <c r="D5" t="n">
-        <v>949.194923871061</v>
+        <v>789.1860474764051</v>
       </c>
       <c r="E5" t="n">
-        <v>563.4066712728168</v>
+        <v>789.1860474764051</v>
       </c>
       <c r="F5" t="n">
-        <v>556.4611705236133</v>
+        <v>782.2405467272016</v>
       </c>
       <c r="G5" t="n">
-        <v>169.1103276161008</v>
+        <v>444.0897123827686</v>
       </c>
       <c r="H5" t="n">
-        <v>131.0098240476119</v>
+        <v>131.0098240476118</v>
       </c>
       <c r="I5" t="n">
-        <v>30.67818675827498</v>
+        <v>30.67818675827506</v>
       </c>
       <c r="J5" t="n">
-        <v>93.6884022714421</v>
+        <v>93.6884022714425</v>
       </c>
       <c r="K5" t="n">
-        <v>238.8628998582993</v>
+        <v>238.8628998583</v>
       </c>
       <c r="L5" t="n">
-        <v>455.8664631799371</v>
+        <v>455.8664631799384</v>
       </c>
       <c r="M5" t="n">
-        <v>728.9941769296673</v>
+        <v>728.994176929669</v>
       </c>
       <c r="N5" t="n">
-        <v>1011.155191012935</v>
+        <v>1011.155191012937</v>
       </c>
       <c r="O5" t="n">
-        <v>1264.256574219954</v>
+        <v>1264.256574219957</v>
       </c>
       <c r="P5" t="n">
-        <v>1445.771748220735</v>
+        <v>1445.771748220739</v>
       </c>
       <c r="Q5" t="n">
-        <v>1533.909337913749</v>
+        <v>1533.909337913753</v>
       </c>
       <c r="R5" t="n">
-        <v>1533.909337913749</v>
+        <v>1533.909337913753</v>
       </c>
       <c r="S5" t="n">
-        <v>1533.909337913749</v>
+        <v>1389.138341207266</v>
       </c>
       <c r="T5" t="n">
-        <v>1533.909337913749</v>
+        <v>1176.536890383918</v>
       </c>
       <c r="U5" t="n">
-        <v>1280.257811214632</v>
+        <v>1176.536890383918</v>
       </c>
       <c r="V5" t="n">
-        <v>949.194923871061</v>
+        <v>1176.536890383918</v>
       </c>
       <c r="W5" t="n">
-        <v>949.194923871061</v>
+        <v>1176.536890383918</v>
       </c>
       <c r="X5" t="n">
-        <v>949.194923871061</v>
+        <v>1176.536890383918</v>
       </c>
       <c r="Y5" t="n">
-        <v>949.194923871061</v>
+        <v>789.1860474764051</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>519.5486571722222</v>
+        <v>757.5315730960683</v>
       </c>
       <c r="C6" t="n">
-        <v>345.0956278910952</v>
+        <v>757.5315730960683</v>
       </c>
       <c r="D6" t="n">
-        <v>196.1612182298439</v>
+        <v>608.597163434817</v>
       </c>
       <c r="E6" t="n">
-        <v>196.1612182298439</v>
+        <v>449.3597084293616</v>
       </c>
       <c r="F6" t="n">
-        <v>196.1612182298439</v>
+        <v>302.8251504562465</v>
       </c>
       <c r="G6" t="n">
-        <v>128.9990457501899</v>
+        <v>165.6524572209308</v>
       </c>
       <c r="H6" t="n">
-        <v>30.67818675827498</v>
+        <v>67.33159822901587</v>
       </c>
       <c r="I6" t="n">
-        <v>30.67818675827498</v>
+        <v>30.67818675827506</v>
       </c>
       <c r="J6" t="n">
-        <v>49.38879249773424</v>
+        <v>49.38879249773449</v>
       </c>
       <c r="K6" t="n">
-        <v>159.5230226128297</v>
+        <v>388.6148927670122</v>
       </c>
       <c r="L6" t="n">
-        <v>353.934627565898</v>
+        <v>583.0264977200809</v>
       </c>
       <c r="M6" t="n">
-        <v>600.1606689153947</v>
+        <v>829.252539069578</v>
       </c>
       <c r="N6" t="n">
-        <v>979.8032300490477</v>
+        <v>1096.404095980891</v>
       </c>
       <c r="O6" t="n">
-        <v>1201.974917131135</v>
+        <v>1318.575783062979</v>
       </c>
       <c r="P6" t="n">
-        <v>1360.954216773158</v>
+        <v>1477.555082705002</v>
       </c>
       <c r="Q6" t="n">
-        <v>1533.909337913749</v>
+        <v>1533.909337913753</v>
       </c>
       <c r="R6" t="n">
-        <v>1529.48068201648</v>
+        <v>1529.480682016484</v>
       </c>
       <c r="S6" t="n">
-        <v>1385.004959357767</v>
+        <v>1529.480682016484</v>
       </c>
       <c r="T6" t="n">
-        <v>1385.004959357767</v>
+        <v>1333.57445349508</v>
       </c>
       <c r="U6" t="n">
-        <v>1385.004959357767</v>
+        <v>1333.57445349508</v>
       </c>
       <c r="V6" t="n">
-        <v>1149.852851126025</v>
+        <v>1219.620430029803</v>
       </c>
       <c r="W6" t="n">
-        <v>895.6154943978231</v>
+        <v>965.3830733016011</v>
       </c>
       <c r="X6" t="n">
-        <v>687.7639941922903</v>
+        <v>757.5315730960683</v>
       </c>
       <c r="Y6" t="n">
-        <v>687.7639941922903</v>
+        <v>757.5315730960683</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>831.4449823412383</v>
+        <v>32.6259912924651</v>
       </c>
       <c r="C7" t="n">
-        <v>662.5087994133314</v>
+        <v>32.6259912924651</v>
       </c>
       <c r="D7" t="n">
-        <v>512.3921600009957</v>
+        <v>32.6259912924651</v>
       </c>
       <c r="E7" t="n">
-        <v>364.4790664186025</v>
+        <v>32.6259912924651</v>
       </c>
       <c r="F7" t="n">
-        <v>217.5891189206922</v>
+        <v>32.6259912924651</v>
       </c>
       <c r="G7" t="n">
-        <v>49.20754666324913</v>
+        <v>32.6259912924651</v>
       </c>
       <c r="H7" t="n">
-        <v>32.62599129246512</v>
+        <v>32.6259912924651</v>
       </c>
       <c r="I7" t="n">
-        <v>32.62599129246512</v>
+        <v>32.6259912924651</v>
       </c>
       <c r="J7" t="n">
-        <v>30.67818675827498</v>
+        <v>30.67818675827506</v>
       </c>
       <c r="K7" t="n">
-        <v>157.3778790199915</v>
+        <v>157.3778790199917</v>
       </c>
       <c r="L7" t="n">
-        <v>375.0362985406463</v>
+        <v>375.0362985406467</v>
       </c>
       <c r="M7" t="n">
-        <v>614.9157070573551</v>
+        <v>614.9157070573558</v>
       </c>
       <c r="N7" t="n">
-        <v>854.5259358182304</v>
+        <v>854.5259358182313</v>
       </c>
       <c r="O7" t="n">
-        <v>1059.828468603748</v>
+        <v>1059.82846860375</v>
       </c>
       <c r="P7" t="n">
-        <v>1211.979570281385</v>
+        <v>1211.979570281386</v>
       </c>
       <c r="Q7" t="n">
-        <v>1233.886026315008</v>
+        <v>1233.88602631501</v>
       </c>
       <c r="R7" t="n">
-        <v>1233.886026315008</v>
+        <v>1233.88602631501</v>
       </c>
       <c r="S7" t="n">
-        <v>1233.886026315008</v>
+        <v>1233.88602631501</v>
       </c>
       <c r="T7" t="n">
-        <v>1233.886026315008</v>
+        <v>1233.88602631501</v>
       </c>
       <c r="U7" t="n">
-        <v>1233.886026315008</v>
+        <v>1025.50977957686</v>
       </c>
       <c r="V7" t="n">
-        <v>1233.886026315008</v>
+        <v>770.8252913709732</v>
       </c>
       <c r="W7" t="n">
-        <v>1233.886026315008</v>
+        <v>481.4081213340125</v>
       </c>
       <c r="X7" t="n">
-        <v>1233.886026315008</v>
+        <v>253.4185704359952</v>
       </c>
       <c r="Y7" t="n">
-        <v>1013.093447171478</v>
+        <v>32.6259912924651</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1688.365042002428</v>
+        <v>1841.137109080772</v>
       </c>
       <c r="C8" t="n">
-        <v>1688.365042002428</v>
+        <v>1841.137109080772</v>
       </c>
       <c r="D8" t="n">
-        <v>1330.099343395678</v>
+        <v>1482.871410474022</v>
       </c>
       <c r="E8" t="n">
-        <v>944.3110907974333</v>
+        <v>1097.083157875778</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3251860078258</v>
+        <v>686.0972530861702</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>270.3925028104591</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816085</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2481.754631475994</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2273.008990081819</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2019.427929345999</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>1688.365042002428</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="W8" t="n">
-        <v>1688.365042002428</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="X8" t="n">
-        <v>1688.365042002428</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="Y8" t="n">
-        <v>1688.365042002428</v>
+        <v>1841.137109080772</v>
       </c>
     </row>
     <row r="9">
@@ -4872,37 +4872,37 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735142</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L9" t="n">
-        <v>1117.223096727985</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M9" t="n">
-        <v>1480.485115687205</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N9" t="n">
-        <v>1867.770244284151</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O9" t="n">
-        <v>2199.840679460312</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4936,49 +4936,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>721.9082577993008</v>
+        <v>643.5623317901019</v>
       </c>
       <c r="C10" t="n">
-        <v>664.1529317523638</v>
+        <v>474.626148862195</v>
       </c>
       <c r="D10" t="n">
-        <v>514.036292340028</v>
+        <v>324.5095094498593</v>
       </c>
       <c r="E10" t="n">
-        <v>366.1231987576349</v>
+        <v>324.5095094498593</v>
       </c>
       <c r="F10" t="n">
-        <v>219.2332512597245</v>
+        <v>177.6195619519489</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4990,22 +4990,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1413.467639269233</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1124.349301773071</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1124.349301773071</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W10" t="n">
-        <v>1124.349301773071</v>
+        <v>1092.344461831649</v>
       </c>
       <c r="X10" t="n">
-        <v>1124.349301773071</v>
+        <v>864.354910933632</v>
       </c>
       <c r="Y10" t="n">
-        <v>903.5567226295406</v>
+        <v>643.5623317901019</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2024.935171776721</v>
+        <v>1731.923485236371</v>
       </c>
       <c r="C11" t="n">
-        <v>1655.972654836309</v>
+        <v>1362.96096829596</v>
       </c>
       <c r="D11" t="n">
-        <v>1297.706956229559</v>
+        <v>1217.333746572396</v>
       </c>
       <c r="E11" t="n">
-        <v>1197.606401104264</v>
+        <v>1217.333746572396</v>
       </c>
       <c r="F11" t="n">
-        <v>786.620496314657</v>
+        <v>806.3478417827882</v>
       </c>
       <c r="G11" t="n">
-        <v>372.125688421307</v>
+        <v>391.8530338894382</v>
       </c>
       <c r="H11" t="n">
-        <v>80.45786684223404</v>
+        <v>100.1852123103652</v>
       </c>
       <c r="I11" t="n">
-        <v>80.45786684223404</v>
+        <v>80.45786684223381</v>
       </c>
       <c r="J11" t="n">
-        <v>317.3880320746715</v>
+        <v>317.3880320746703</v>
       </c>
       <c r="K11" t="n">
-        <v>723.2234501947042</v>
+        <v>723.2234501947016</v>
       </c>
       <c r="L11" t="n">
-        <v>1263.599934653014</v>
+        <v>1263.599934653011</v>
       </c>
       <c r="M11" t="n">
-        <v>1896.542330458667</v>
+        <v>1896.542330458662</v>
       </c>
       <c r="N11" t="n">
-        <v>2544.340204328189</v>
+        <v>2544.340204328183</v>
       </c>
       <c r="O11" t="n">
-        <v>3142.702105990711</v>
+        <v>3142.702105990704</v>
       </c>
       <c r="P11" t="n">
-        <v>3618.889144608859</v>
+        <v>3618.88914460885</v>
       </c>
       <c r="Q11" t="n">
-        <v>3928.313032718602</v>
+        <v>3928.313032718591</v>
       </c>
       <c r="R11" t="n">
-        <v>4022.893342111702</v>
+        <v>4022.893342111691</v>
       </c>
       <c r="S11" t="n">
-        <v>3925.765696676228</v>
+        <v>4022.893342111691</v>
       </c>
       <c r="T11" t="n">
-        <v>3722.316578060839</v>
+        <v>3819.444223496301</v>
       </c>
       <c r="U11" t="n">
-        <v>3468.832312715607</v>
+        <v>3565.95995815107</v>
       </c>
       <c r="V11" t="n">
-        <v>3137.769425372036</v>
+        <v>3234.897070807499</v>
       </c>
       <c r="W11" t="n">
-        <v>2785.000770101922</v>
+        <v>2882.128415537385</v>
       </c>
       <c r="X11" t="n">
-        <v>2411.535011840842</v>
+        <v>2508.662657276305</v>
       </c>
       <c r="Y11" t="n">
-        <v>2411.535011840842</v>
+        <v>2118.523325300493</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>176.3410440432266</v>
       </c>
       <c r="H12" t="n">
-        <v>88.82407519727434</v>
+        <v>88.8240751972743</v>
       </c>
       <c r="I12" t="n">
-        <v>80.45786684223404</v>
+        <v>80.45786684223381</v>
       </c>
       <c r="J12" t="n">
-        <v>202.754003163556</v>
+        <v>202.7540031635553</v>
       </c>
       <c r="K12" t="n">
-        <v>202.754003163556</v>
+        <v>489.9324039036181</v>
       </c>
       <c r="L12" t="n">
-        <v>635.2233441295818</v>
+        <v>922.4017448696427</v>
       </c>
       <c r="M12" t="n">
-        <v>939.25669083455</v>
+        <v>1446.429935688253</v>
       </c>
       <c r="N12" t="n">
-        <v>1491.56299348533</v>
+        <v>1998.736238339032</v>
       </c>
       <c r="O12" t="n">
-        <v>1974.595563417532</v>
+        <v>2481.768808271233</v>
       </c>
       <c r="P12" t="n">
-        <v>2342.938719448448</v>
+        <v>2557.913016602452</v>
       </c>
       <c r="Q12" t="n">
-        <v>2539.247168151212</v>
+        <v>2557.913016602452</v>
       </c>
       <c r="R12" t="n">
         <v>2557.913016602452</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>247.9015930349823</v>
+        <v>249.3940497701407</v>
       </c>
       <c r="C13" t="n">
-        <v>247.9015930349823</v>
+        <v>80.45786684223378</v>
       </c>
       <c r="D13" t="n">
-        <v>247.9015930349823</v>
+        <v>80.45786684223381</v>
       </c>
       <c r="E13" t="n">
-        <v>247.9015930349823</v>
+        <v>80.45786684223381</v>
       </c>
       <c r="F13" t="n">
-        <v>247.9015930349823</v>
+        <v>80.45786684223381</v>
       </c>
       <c r="G13" t="n">
-        <v>80.45786684223404</v>
+        <v>80.45786684223381</v>
       </c>
       <c r="H13" t="n">
-        <v>80.45786684223404</v>
+        <v>80.45786684223381</v>
       </c>
       <c r="I13" t="n">
-        <v>80.45786684223404</v>
+        <v>80.45786684223381</v>
       </c>
       <c r="J13" t="n">
-        <v>143.5350566283905</v>
+        <v>143.5350566283897</v>
       </c>
       <c r="K13" t="n">
-        <v>377.0270927076824</v>
+        <v>377.027092707681</v>
       </c>
       <c r="L13" t="n">
-        <v>731.3429449977132</v>
+        <v>731.3429449977112</v>
       </c>
       <c r="M13" t="n">
-        <v>1115.308455583785</v>
+        <v>1115.308455583782</v>
       </c>
       <c r="N13" t="n">
-        <v>1495.578740955086</v>
+        <v>1495.578740955082</v>
       </c>
       <c r="O13" t="n">
-        <v>1830.803602510218</v>
+        <v>1830.803602510213</v>
       </c>
       <c r="P13" t="n">
-        <v>2094.125701226119</v>
+        <v>2094.125701226114</v>
       </c>
       <c r="Q13" t="n">
-        <v>2193.001193167699</v>
+        <v>2193.001193167693</v>
       </c>
       <c r="R13" t="n">
-        <v>2114.821283191653</v>
+        <v>2114.821283191647</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.650987192708</v>
+        <v>1927.650987192703</v>
       </c>
       <c r="T13" t="n">
-        <v>1706.991479973965</v>
+        <v>1706.99147997396</v>
       </c>
       <c r="U13" t="n">
-        <v>1417.902746395929</v>
+        <v>1417.902746395924</v>
       </c>
       <c r="V13" t="n">
-        <v>1163.218258190042</v>
+        <v>1163.218258190037</v>
       </c>
       <c r="W13" t="n">
-        <v>873.8010881530815</v>
+        <v>879.8246446419279</v>
       </c>
       <c r="X13" t="n">
-        <v>645.8115372550642</v>
+        <v>651.8350937439105</v>
       </c>
       <c r="Y13" t="n">
-        <v>425.0189581115341</v>
+        <v>431.0425146003804</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2266.424947555043</v>
+        <v>2266.424947555048</v>
       </c>
       <c r="C14" t="n">
-        <v>1897.462430614632</v>
+        <v>1897.462430614636</v>
       </c>
       <c r="D14" t="n">
-        <v>1539.196732007882</v>
+        <v>1539.196732007886</v>
       </c>
       <c r="E14" t="n">
-        <v>1153.408479409637</v>
+        <v>1153.408479409642</v>
       </c>
       <c r="F14" t="n">
-        <v>742.4225746200298</v>
+        <v>742.4225746200343</v>
       </c>
       <c r="G14" t="n">
-        <v>328.4394675364361</v>
+        <v>328.4394675364408</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608051</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I14" t="n">
-        <v>92.8116232260805</v>
+        <v>92.8116232260806</v>
       </c>
       <c r="J14" t="n">
-        <v>372.307498725193</v>
+        <v>372.3074987251948</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128749</v>
+        <v>841.9378825128779</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.45766301865</v>
+        <v>1461.457663018652</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957687</v>
+        <v>2182.462224957691</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874793</v>
+        <v>2919.747202874797</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333931</v>
+        <v>3602.609239333936</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021281</v>
+        <v>4150.915188021285</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.497374127288</v>
+        <v>4514.497374127292</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304025</v>
+        <v>4640.58116130403</v>
       </c>
       <c r="S14" t="n">
-        <v>4555.113898070874</v>
+        <v>4555.113898070878</v>
       </c>
       <c r="T14" t="n">
-        <v>4353.904749750192</v>
+        <v>4353.904749750197</v>
       </c>
       <c r="U14" t="n">
-        <v>4100.461420469742</v>
+        <v>4100.461420469746</v>
       </c>
       <c r="V14" t="n">
-        <v>3769.398533126171</v>
+        <v>3769.398533126176</v>
       </c>
       <c r="W14" t="n">
-        <v>3416.629877856057</v>
+        <v>3416.629877856061</v>
       </c>
       <c r="X14" t="n">
-        <v>3043.164119594977</v>
+        <v>3043.164119594981</v>
       </c>
       <c r="Y14" t="n">
-        <v>2653.024787619165</v>
+        <v>2653.02478761917</v>
       </c>
     </row>
     <row r="15">
@@ -5340,43 +5340,43 @@
         <v>619.2366775615039</v>
       </c>
       <c r="E15" t="n">
-        <v>459.9992225560484</v>
+        <v>459.9992225560485</v>
       </c>
       <c r="F15" t="n">
-        <v>313.4646645829333</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G15" t="n">
-        <v>177.6844143428629</v>
+        <v>177.684414342863</v>
       </c>
       <c r="H15" t="n">
-        <v>92.8116232260805</v>
+        <v>92.8116232260806</v>
       </c>
       <c r="I15" t="n">
-        <v>92.8116232260805</v>
+        <v>92.8116232260806</v>
       </c>
       <c r="J15" t="n">
-        <v>240.4596049779264</v>
+        <v>240.4596049779267</v>
       </c>
       <c r="K15" t="n">
-        <v>570.9683475412851</v>
+        <v>570.9683475412857</v>
       </c>
       <c r="L15" t="n">
-        <v>1061.700680385036</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M15" t="n">
-        <v>1653.719034637164</v>
+        <v>1586.315636343969</v>
       </c>
       <c r="N15" t="n">
-        <v>2275.8149980365</v>
+        <v>1586.315636343969</v>
       </c>
       <c r="O15" t="n">
-        <v>2286.888151551083</v>
+        <v>2133.192111344164</v>
       </c>
       <c r="P15" t="n">
-        <v>2286.888151551083</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q15" t="n">
-        <v>2517.44942553633</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R15" t="n">
         <v>2552.77562977024</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1009.586668247207</v>
+        <v>494.0589900220742</v>
       </c>
       <c r="C16" t="n">
-        <v>846.8182155057104</v>
+        <v>325.1228070941672</v>
       </c>
       <c r="D16" t="n">
-        <v>696.7015760933747</v>
+        <v>325.1228070941672</v>
       </c>
       <c r="E16" t="n">
-        <v>548.7884825109816</v>
+        <v>325.1228070941672</v>
       </c>
       <c r="F16" t="n">
-        <v>401.8985350130712</v>
+        <v>260.0258180515017</v>
       </c>
       <c r="G16" t="n">
-        <v>234.6843401876501</v>
+        <v>92.8116232260806</v>
       </c>
       <c r="H16" t="n">
-        <v>92.8116232260805</v>
+        <v>92.8116232260806</v>
       </c>
       <c r="I16" t="n">
-        <v>92.8116232260805</v>
+        <v>92.8116232260806</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156343</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K16" t="n">
-        <v>431.422473086198</v>
+        <v>431.4224730861984</v>
       </c>
       <c r="L16" t="n">
-        <v>819.1842911693323</v>
+        <v>819.1842911693327</v>
       </c>
       <c r="M16" t="n">
         <v>1238.413883213792</v>
@@ -5449,37 +5449,37 @@
         <v>1653.109749005499</v>
       </c>
       <c r="O16" t="n">
-        <v>2020.132206020528</v>
+        <v>2020.132206020529</v>
       </c>
       <c r="P16" t="n">
-        <v>2310.662640856733</v>
+        <v>2310.662640856734</v>
       </c>
       <c r="Q16" t="n">
-        <v>2428.375774410168</v>
+        <v>2428.375774410169</v>
       </c>
       <c r="R16" t="n">
-        <v>2428.375774410168</v>
+        <v>2360.51642936867</v>
       </c>
       <c r="S16" t="n">
-        <v>2245.205584149098</v>
+        <v>2177.3462391076</v>
       </c>
       <c r="T16" t="n">
-        <v>2245.205584149098</v>
+        <v>1957.667456821982</v>
       </c>
       <c r="U16" t="n">
-        <v>1956.129370463825</v>
+        <v>1668.591243136709</v>
       </c>
       <c r="V16" t="n">
-        <v>1701.444882257938</v>
+        <v>1413.906754930822</v>
       </c>
       <c r="W16" t="n">
-        <v>1412.027712220977</v>
+        <v>1124.489584893861</v>
       </c>
       <c r="X16" t="n">
-        <v>1412.027712220977</v>
+        <v>896.500033995844</v>
       </c>
       <c r="Y16" t="n">
-        <v>1191.235133077447</v>
+        <v>675.7074548523138</v>
       </c>
     </row>
     <row r="17">
@@ -5501,49 +5501,49 @@
         <v>1204.208000760438</v>
       </c>
       <c r="F17" t="n">
-        <v>793.22209597083</v>
+        <v>793.2220959708302</v>
       </c>
       <c r="G17" t="n">
         <v>379.2389888872364</v>
       </c>
       <c r="H17" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608051</v>
       </c>
       <c r="I17" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="J17" t="n">
-        <v>372.3074987251935</v>
+        <v>372.3074987251939</v>
       </c>
       <c r="K17" t="n">
-        <v>841.9378825128756</v>
+        <v>841.9378825128751</v>
       </c>
       <c r="L17" t="n">
         <v>1461.45766301865</v>
       </c>
       <c r="M17" t="n">
-        <v>2182.462224957687</v>
+        <v>2182.462224957688</v>
       </c>
       <c r="N17" t="n">
-        <v>2919.747202874793</v>
+        <v>2919.747202874794</v>
       </c>
       <c r="O17" t="n">
-        <v>3602.609239333932</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P17" t="n">
-        <v>4150.91518802128</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q17" t="n">
-        <v>4514.497374127288</v>
+        <v>4514.49737412729</v>
       </c>
       <c r="R17" t="n">
-        <v>4640.581161304026</v>
+        <v>4640.581161304029</v>
       </c>
       <c r="S17" t="n">
-        <v>4555.113898070875</v>
+        <v>4555.113898070878</v>
       </c>
       <c r="T17" t="n">
-        <v>4404.704271100993</v>
+        <v>4353.904749750197</v>
       </c>
       <c r="U17" t="n">
         <v>4151.260941820542</v>
@@ -5577,43 +5577,43 @@
         <v>619.2366775615039</v>
       </c>
       <c r="E18" t="n">
-        <v>459.9992225560484</v>
+        <v>459.9992225560485</v>
       </c>
       <c r="F18" t="n">
-        <v>313.4646645829333</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G18" t="n">
-        <v>177.6844143428629</v>
+        <v>177.684414342863</v>
       </c>
       <c r="H18" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="I18" t="n">
-        <v>93.85065580060311</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="J18" t="n">
-        <v>106.3138404733492</v>
+        <v>240.4596049779266</v>
       </c>
       <c r="K18" t="n">
-        <v>106.3138404733492</v>
+        <v>570.9683475412855</v>
       </c>
       <c r="L18" t="n">
-        <v>106.3138404733492</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M18" t="n">
-        <v>698.3321947254767</v>
+        <v>1586.31563634397</v>
       </c>
       <c r="N18" t="n">
-        <v>1320.428158124813</v>
+        <v>1586.31563634397</v>
       </c>
       <c r="O18" t="n">
-        <v>1867.304633125007</v>
+        <v>2133.192111344164</v>
       </c>
       <c r="P18" t="n">
-        <v>2286.888151551083</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q18" t="n">
-        <v>2517.44942553633</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R18" t="n">
         <v>2552.77562977024</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>931.9136684890295</v>
+        <v>494.0589900220739</v>
       </c>
       <c r="C19" t="n">
-        <v>762.9774855611226</v>
+        <v>325.122807094167</v>
       </c>
       <c r="D19" t="n">
-        <v>696.7015760933748</v>
+        <v>325.122807094167</v>
       </c>
       <c r="E19" t="n">
-        <v>548.7884825109817</v>
+        <v>325.122807094167</v>
       </c>
       <c r="F19" t="n">
-        <v>401.8985350130713</v>
+        <v>260.0258180515017</v>
       </c>
       <c r="G19" t="n">
-        <v>234.6843401876502</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="H19" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="I19" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="J19" t="n">
-        <v>171.7937461156344</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K19" t="n">
-        <v>431.4224730861981</v>
+        <v>431.4224730861982</v>
       </c>
       <c r="L19" t="n">
-        <v>819.1842911693323</v>
+        <v>819.1842911693325</v>
       </c>
       <c r="M19" t="n">
-        <v>1238.413883213791</v>
+        <v>1238.413883213792</v>
       </c>
       <c r="N19" t="n">
         <v>1653.109749005499</v>
@@ -5698,25 +5698,25 @@
         <v>2360.516429368669</v>
       </c>
       <c r="S19" t="n">
-        <v>2360.516429368669</v>
+        <v>2177.3462391076</v>
       </c>
       <c r="T19" t="n">
-        <v>2140.837647083051</v>
+        <v>1957.667456821982</v>
       </c>
       <c r="U19" t="n">
-        <v>1851.761433397777</v>
+        <v>1668.591243136709</v>
       </c>
       <c r="V19" t="n">
-        <v>1851.761433397777</v>
+        <v>1413.906754930822</v>
       </c>
       <c r="W19" t="n">
-        <v>1562.344263360817</v>
+        <v>1124.489584893861</v>
       </c>
       <c r="X19" t="n">
-        <v>1334.354712462799</v>
+        <v>896.5000339958438</v>
       </c>
       <c r="Y19" t="n">
-        <v>1113.562133319269</v>
+        <v>675.7074548523136</v>
       </c>
     </row>
     <row r="20">
@@ -5726,16 +5726,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.224468905844</v>
+        <v>2266.424947555046</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.261951965432</v>
+        <v>1897.462430614635</v>
       </c>
       <c r="D20" t="n">
-        <v>1589.996253358682</v>
+        <v>1539.196732007884</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.208000760437</v>
+        <v>1153.40847940964</v>
       </c>
       <c r="F20" t="n">
         <v>793.22209597083</v>
@@ -5744,13 +5744,13 @@
         <v>379.2389888872365</v>
       </c>
       <c r="H20" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I20" t="n">
-        <v>92.81162322608066</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="J20" t="n">
-        <v>372.3074987251937</v>
+        <v>372.3074987251935</v>
       </c>
       <c r="K20" t="n">
         <v>841.9378825128756</v>
@@ -5759,43 +5759,43 @@
         <v>1461.45766301865</v>
       </c>
       <c r="M20" t="n">
-        <v>2182.462224957687</v>
+        <v>2182.462224957688</v>
       </c>
       <c r="N20" t="n">
-        <v>2919.747202874793</v>
+        <v>2919.747202874794</v>
       </c>
       <c r="O20" t="n">
-        <v>3602.609239333932</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P20" t="n">
         <v>4150.915188021281</v>
       </c>
       <c r="Q20" t="n">
-        <v>4514.497374127288</v>
+        <v>4514.497374127289</v>
       </c>
       <c r="R20" t="n">
-        <v>4640.581161304026</v>
+        <v>4640.581161304028</v>
       </c>
       <c r="S20" t="n">
-        <v>4555.113898070875</v>
+        <v>4555.113898070877</v>
       </c>
       <c r="T20" t="n">
-        <v>4353.904749750193</v>
+        <v>4353.904749750196</v>
       </c>
       <c r="U20" t="n">
-        <v>4100.461420469743</v>
+        <v>4100.461420469745</v>
       </c>
       <c r="V20" t="n">
-        <v>3769.398533126172</v>
+        <v>3769.398533126174</v>
       </c>
       <c r="W20" t="n">
-        <v>3416.629877856058</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X20" t="n">
-        <v>3043.164119594978</v>
+        <v>3043.16411959498</v>
       </c>
       <c r="Y20" t="n">
-        <v>2653.024787619166</v>
+        <v>2653.024787619168</v>
       </c>
     </row>
     <row r="21">
@@ -5817,37 +5817,37 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F21" t="n">
-        <v>313.4646645829333</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G21" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H21" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I21" t="n">
-        <v>93.85065580060312</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J21" t="n">
-        <v>93.85065580060312</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K21" t="n">
-        <v>424.3593983639619</v>
+        <v>570.9683475412853</v>
       </c>
       <c r="L21" t="n">
-        <v>915.0917312077133</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M21" t="n">
-        <v>1153.241917385462</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N21" t="n">
-        <v>1775.337880784798</v>
+        <v>2275.814998036501</v>
       </c>
       <c r="O21" t="n">
-        <v>2322.214355784993</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P21" t="n">
-        <v>2322.214355784993</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q21" t="n">
         <v>2552.77562977024</v>
@@ -5884,43 +5884,43 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1015.754398433617</v>
+        <v>787.5763841445541</v>
       </c>
       <c r="C22" t="n">
-        <v>846.8182155057106</v>
+        <v>787.5763841445541</v>
       </c>
       <c r="D22" t="n">
-        <v>696.7015760933748</v>
+        <v>637.4597447322184</v>
       </c>
       <c r="E22" t="n">
-        <v>548.7884825109816</v>
+        <v>489.5466511498253</v>
       </c>
       <c r="F22" t="n">
-        <v>401.8985350130713</v>
+        <v>342.6567036519149</v>
       </c>
       <c r="G22" t="n">
-        <v>234.6843401876502</v>
+        <v>175.4425088264937</v>
       </c>
       <c r="H22" t="n">
-        <v>92.81162322608053</v>
+        <v>175.4425088264937</v>
       </c>
       <c r="I22" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J22" t="n">
-        <v>171.7937461156344</v>
+        <v>171.7937461156346</v>
       </c>
       <c r="K22" t="n">
-        <v>431.4224730861981</v>
+        <v>431.4224730861984</v>
       </c>
       <c r="L22" t="n">
-        <v>819.184291169332</v>
+        <v>819.1842911693326</v>
       </c>
       <c r="M22" t="n">
-        <v>1238.413883213791</v>
+        <v>1238.413883213792</v>
       </c>
       <c r="N22" t="n">
-        <v>1653.109749005498</v>
+        <v>1653.109749005499</v>
       </c>
       <c r="O22" t="n">
         <v>2020.132206020528</v>
@@ -5932,28 +5932,28 @@
         <v>2428.375774410168</v>
       </c>
       <c r="R22" t="n">
-        <v>2360.516429368669</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="S22" t="n">
-        <v>2360.516429368669</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="T22" t="n">
-        <v>2297.714400403285</v>
+        <v>2208.69699212455</v>
       </c>
       <c r="U22" t="n">
-        <v>2008.638186718013</v>
+        <v>1919.620778439277</v>
       </c>
       <c r="V22" t="n">
-        <v>1753.953698512126</v>
+        <v>1664.93629023339</v>
       </c>
       <c r="W22" t="n">
-        <v>1464.536528475165</v>
+        <v>1375.519120196429</v>
       </c>
       <c r="X22" t="n">
-        <v>1236.546977577148</v>
+        <v>1147.529569298412</v>
       </c>
       <c r="Y22" t="n">
-        <v>1015.754398433617</v>
+        <v>926.7369901548815</v>
       </c>
     </row>
     <row r="23">
@@ -5963,46 +5963,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362674</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6014,25 +6014,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6060,31 +6060,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>716.6687843969308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>991.7436897307816</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C25" t="n">
-        <v>822.8075068028747</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D25" t="n">
-        <v>672.6908673905391</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E25" t="n">
-        <v>524.7777738081459</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6187,10 +6187,10 @@
         <v>1394.184733704551</v>
       </c>
       <c r="X25" t="n">
-        <v>1394.184733704551</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y25" t="n">
-        <v>1173.392154561021</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="26">
@@ -6203,10 +6203,10 @@
         <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
@@ -6221,13 +6221,13 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,28 +6300,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273902</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>429.5088224239596</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1026.887310050512</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N27" t="n">
-        <v>1654.485273605118</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>763.7541388327645</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C28" t="n">
-        <v>594.8179559048576</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D28" t="n">
-        <v>594.8179559048576</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>446.9048623224646</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797186</v>
@@ -6385,10 +6385,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6400,7 +6400,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.96308358026</v>
@@ -6421,13 +6421,13 @@
         <v>1683.601903741512</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704552</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X28" t="n">
         <v>1166.195182806534</v>
       </c>
       <c r="Y28" t="n">
-        <v>945.4026036630042</v>
+        <v>945.4026036630038</v>
       </c>
     </row>
     <row r="29">
@@ -6443,31 +6443,31 @@
         <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362673</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6479,10 +6479,10 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6549,19 +6549,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.311647517212</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>789.7592298206043</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C31" t="n">
-        <v>620.8230468926974</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D31" t="n">
-        <v>470.7064074803617</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E31" t="n">
-        <v>322.7933138979686</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F31" t="n">
-        <v>175.9033664000582</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797186</v>
@@ -6622,10 +6622,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6640,31 +6640,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2253.366709591045</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T31" t="n">
-        <v>2253.366709591045</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U31" t="n">
-        <v>1964.291482935243</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V31" t="n">
-        <v>1709.606994729357</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W31" t="n">
-        <v>1420.189824692396</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X31" t="n">
-        <v>1192.200273794374</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y31" t="n">
-        <v>971.4076946508441</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="32">
@@ -6704,13 +6704,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6719,7 +6719,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6731,10 +6731,10 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
         <v>3467.980956852888</v>
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1520.445529061503</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>916.3099000622226</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C34" t="n">
-        <v>747.3737171343157</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="D34" t="n">
-        <v>597.2570777219798</v>
+        <v>363.7369613277356</v>
       </c>
       <c r="E34" t="n">
-        <v>449.3439841395868</v>
+        <v>215.8238677453426</v>
       </c>
       <c r="F34" t="n">
-        <v>302.4540366416763</v>
+        <v>215.8238677453426</v>
       </c>
       <c r="G34" t="n">
-        <v>135.2579373565563</v>
+        <v>215.8238677453426</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832659</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832659</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2379.917379832659</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2090.842153176857</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1836.15766497097</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1546.74049493401</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1318.750944035992</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y34" t="n">
-        <v>1097.958364892462</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="35">
@@ -6929,28 +6929,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6962,25 +6962,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1231.938859683105</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>874.8686257536377</v>
+        <v>874.8686257536376</v>
       </c>
       <c r="C37" t="n">
-        <v>705.9324428257308</v>
+        <v>705.9324428257307</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133951</v>
+        <v>555.8158034133949</v>
       </c>
       <c r="E37" t="n">
-        <v>407.902709831002</v>
+        <v>407.9027098310019</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330916</v>
+        <v>261.0127623330918</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7111,7 +7111,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.96308358026</v>
@@ -7120,22 +7120,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>2049.400878868272</v>
       </c>
       <c r="V37" t="n">
-        <v>1755.431557602304</v>
+        <v>1794.716390662385</v>
       </c>
       <c r="W37" t="n">
-        <v>1466.014387565343</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X37" t="n">
-        <v>1238.024836667326</v>
+        <v>1277.309669727407</v>
       </c>
       <c r="Y37" t="n">
         <v>1056.517090583877</v>
@@ -7163,37 +7163,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7245,10 +7245,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
@@ -7260,19 +7260,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1700.311647517212</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>800.5007694647275</v>
+        <v>580.899304487669</v>
       </c>
       <c r="C40" t="n">
-        <v>697.5276345711974</v>
+        <v>580.899304487669</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711974</v>
+        <v>430.7826650753332</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888043</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7342,40 +7342,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235164</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2264.108249235164</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1975.033022579362</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1720.348534373475</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1430.931364336515</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>1202.941813438497</v>
+        <v>983.3403484614389</v>
       </c>
       <c r="Y40" t="n">
-        <v>982.1492342949672</v>
+        <v>762.5477693179088</v>
       </c>
     </row>
     <row r="41">
@@ -7403,7 +7403,7 @@
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N42" t="n">
-        <v>1859.536823237711</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>916.3099000622262</v>
+        <v>733.4550657171294</v>
       </c>
       <c r="C43" t="n">
-        <v>747.3737171343193</v>
+        <v>564.5188827892225</v>
       </c>
       <c r="D43" t="n">
-        <v>597.2570777219835</v>
+        <v>564.5188827892225</v>
       </c>
       <c r="E43" t="n">
-        <v>449.3439841395905</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F43" t="n">
-        <v>302.45403664168</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>135.25793735656</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>135.25793735656</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782953</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038339</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="U43" t="n">
-        <v>2090.842153176861</v>
+        <v>1907.987318831764</v>
       </c>
       <c r="V43" t="n">
-        <v>1836.157664970974</v>
+        <v>1653.302830625877</v>
       </c>
       <c r="W43" t="n">
-        <v>1546.740494934013</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X43" t="n">
-        <v>1318.750944035996</v>
+        <v>1135.896109690899</v>
       </c>
       <c r="Y43" t="n">
-        <v>1097.958364892466</v>
+        <v>915.1035305473691</v>
       </c>
     </row>
     <row r="44">
@@ -7637,28 +7637,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N45" t="n">
-        <v>1859.536823237711</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>874.8686257536384</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C46" t="n">
-        <v>705.9324428257315</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133958</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310027</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330923</v>
+        <v>344.9174178121635</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270441</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7813,43 +7813,43 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910812</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.56011257082</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279805</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853364</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580263</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832666</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832666</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T46" t="n">
-        <v>2160.315914855606</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U46" t="n">
-        <v>1871.240688199804</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V46" t="n">
-        <v>1616.556199993918</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W46" t="n">
-        <v>1327.139029956957</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1099.14947905894</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y46" t="n">
-        <v>1056.517090583878</v>
+        <v>695.50206557031</v>
       </c>
     </row>
   </sheetData>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>97.32166909127245</v>
+        <v>97.32166909127268</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.48513033188152</v>
+        <v>34.48513033188132</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,7 +8295,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>231.4059294486686</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8304,7 +8304,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>113.6272769922629</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>117.7786524564041</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8535,7 +8535,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>265.0304328515144</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>240.4465442417438</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23261,10 +23261,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>210.5120921143547</v>
       </c>
       <c r="E11" t="n">
-        <v>282.8308204982205</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>19.53007201344968</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>96.15636898111906</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.485788756151038</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.7692889308208</v>
       </c>
       <c r="H13" t="n">
         <v>142.4743248871677</v>
       </c>
       <c r="I13" t="n">
-        <v>88.63818461247367</v>
+        <v>88.63818461247379</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>5.963320923963352</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>50.29152613729232</v>
+        <v>50.2915261372876</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>6.106052884545619</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>80.97502887069247</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440903</v>
+        <v>81.80457674440899</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23783,10 +23783,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>50.29152613729095</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>50.29152613728787</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>83.00232264514165</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>80.97502887069247</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I19" t="n">
-        <v>81.80457674440903</v>
+        <v>81.804576744409</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>50.29152613729138</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23978,7 +23978,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>50.29152613728911</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>42.06298023171291</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I22" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S22" t="n">
         <v>181.338488358459</v>
       </c>
       <c r="T22" t="n">
-        <v>155.3079857870321</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24221,7 +24221,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24373,13 +24373,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>24.58839950885123</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>110.003342051665</v>
       </c>
     </row>
     <row r="26">
@@ -24443,13 +24443,13 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24598,25 +24598,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>110.0033420516649</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>101.6825818796763</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24683,7 +24683,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,16 +24883,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>55.7411224624432</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>250.2980548978882</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24977,7 +24977,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25084,13 +25084,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>99.26785128072532</v>
+        <v>19.50758019582645</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25123,10 +25123,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25151,7 +25151,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25360,16 +25360,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>110.0033420516646</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>38.89198472948109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25439,7 +25439,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25549,13 +25549,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>65.30341755403305</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>123.7828069546818</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25600,7 +25600,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25789,10 +25789,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>131.6786642641549</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>40.23897475306325</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -26026,19 +26026,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>57.2291039219421</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26071,7 +26071,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>176.378588761784</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>830957.7486785632</v>
+        <v>830957.748678562</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>893316.7962070436</v>
+        <v>893316.7962070439</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>893316.7962070437</v>
+        <v>893316.7962070439</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>898230.3070642162</v>
+        <v>898230.3070642164</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>898230.3070642164</v>
+        <v>898230.3070642162</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>898230.3070642164</v>
+        <v>898230.3070642162</v>
       </c>
     </row>
   </sheetData>
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117841</v>
+        <v>533677.150411784</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.150411784</v>
       </c>
       <c r="D2" t="n">
         <v>533677.150411784</v>
       </c>
       <c r="E2" t="n">
-        <v>484893.3234797092</v>
+        <v>484893.3234797082</v>
       </c>
       <c r="F2" t="n">
-        <v>521741.85156472</v>
+        <v>521741.8515647202</v>
       </c>
       <c r="G2" t="n">
-        <v>521741.85156472</v>
+        <v>521741.8515647202</v>
       </c>
       <c r="H2" t="n">
-        <v>521741.85156472</v>
+        <v>521741.8515647202</v>
       </c>
       <c r="I2" t="n">
         <v>524645.2897985039</v>
@@ -26341,19 +26341,19 @@
         <v>524645.2897985039</v>
       </c>
       <c r="L2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985041</v>
       </c>
       <c r="M2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="N2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.289798504</v>
       </c>
       <c r="O2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.289798504</v>
       </c>
       <c r="P2" t="n">
-        <v>524645.2897985042</v>
+        <v>524645.289798504</v>
       </c>
     </row>
     <row r="3">
@@ -26366,40 +26366,40 @@
         <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
-        <v>132571.3256199668</v>
+        <v>132571.3256199678</v>
       </c>
       <c r="D3" t="n">
-        <v>265633.5342698674</v>
+        <v>265633.5342698662</v>
       </c>
       <c r="E3" t="n">
-        <v>348407.0423979646</v>
+        <v>348407.042397962</v>
       </c>
       <c r="F3" t="n">
-        <v>143852.0300046385</v>
+        <v>143852.0300046421</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>10818.91345744848</v>
+        <v>10818.9134574483</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911403</v>
+        <v>68999.1544191141</v>
       </c>
       <c r="K3" t="n">
-        <v>30823.2807518188</v>
+        <v>30823.28075181903</v>
       </c>
       <c r="L3" t="n">
-        <v>65071.59368054882</v>
+        <v>65071.59368054855</v>
       </c>
       <c r="M3" t="n">
-        <v>90993.97560824305</v>
+        <v>90993.97560824234</v>
       </c>
       <c r="N3" t="n">
-        <v>37822.10612282954</v>
+        <v>37822.10612283049</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,10 +26418,10 @@
         <v>251227.3656190198</v>
       </c>
       <c r="C4" t="n">
-        <v>215557.4610402619</v>
+        <v>215557.4610402616</v>
       </c>
       <c r="D4" t="n">
-        <v>140338.6838374606</v>
+        <v>140338.6838374607</v>
       </c>
       <c r="E4" t="n">
         <v>11080.50649916846</v>
@@ -26467,22 +26467,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426621</v>
       </c>
       <c r="C5" t="n">
-        <v>72576.9102163817</v>
+        <v>72576.91021638177</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>88006.19635166999</v>
+        <v>88006.19635166976</v>
       </c>
       <c r="F5" t="n">
-        <v>100142.1285138384</v>
+        <v>100142.1285138385</v>
       </c>
       <c r="G5" t="n">
-        <v>100142.1285138384</v>
+        <v>100142.1285138385</v>
       </c>
       <c r="H5" t="n">
         <v>100142.1285138384</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-460685.9990026951</v>
+        <v>-460685.9990026952</v>
       </c>
       <c r="C6" t="n">
-        <v>112971.4535351738</v>
+        <v>112971.4535351728</v>
       </c>
       <c r="D6" t="n">
-        <v>34767.15986461118</v>
+        <v>34767.15986461236</v>
       </c>
       <c r="E6" t="n">
-        <v>37399.57823090607</v>
+        <v>37211.94812732303</v>
       </c>
       <c r="F6" t="n">
-        <v>266587.1934156749</v>
+        <v>266541.2884201058</v>
       </c>
       <c r="G6" t="n">
-        <v>410439.2234203135</v>
+        <v>410393.3184247481</v>
       </c>
       <c r="H6" t="n">
-        <v>410439.2234203133</v>
+        <v>410393.3184247481</v>
       </c>
       <c r="I6" t="n">
-        <v>401536.8142653547</v>
+        <v>401502.0763399193</v>
       </c>
       <c r="J6" t="n">
-        <v>343356.5733036892</v>
+        <v>343321.8353782534</v>
       </c>
       <c r="K6" t="n">
-        <v>381532.4469709845</v>
+        <v>381497.7090455485</v>
       </c>
       <c r="L6" t="n">
-        <v>347284.1340422545</v>
+        <v>347249.3961168192</v>
       </c>
       <c r="M6" t="n">
-        <v>321361.7521145603</v>
+        <v>321327.0141891253</v>
       </c>
       <c r="N6" t="n">
-        <v>374533.6215999739</v>
+        <v>374498.8836745371</v>
       </c>
       <c r="O6" t="n">
-        <v>412355.7277228034</v>
+        <v>412320.9897973676</v>
       </c>
       <c r="P6" t="n">
-        <v>412355.7277228035</v>
+        <v>412320.9897973676</v>
       </c>
     </row>
   </sheetData>
@@ -26738,13 +26738,13 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>717.1508385363633</v>
+        <v>717.1508385363641</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
-        <v>1232.028328053767</v>
+        <v>1232.028328053764</v>
       </c>
       <c r="F3" t="n">
         <v>1358.041048716386</v>
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="C4" t="n">
-        <v>383.4773344784373</v>
+        <v>383.4773344784383</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>1005.723335527925</v>
+        <v>1005.723335527923</v>
       </c>
       <c r="F4" t="n">
-        <v>1160.145290326006</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="G4" t="n">
-        <v>1160.145290326006</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="H4" t="n">
-        <v>1160.145290326006</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26960,22 +26960,22 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>103.0958247668849</v>
+        <v>103.0958247668857</v>
       </c>
       <c r="D3" t="n">
-        <v>216.9140535811761</v>
+        <v>216.914053581175</v>
       </c>
       <c r="E3" t="n">
-        <v>297.9634359362276</v>
+        <v>297.9634359362253</v>
       </c>
       <c r="F3" t="n">
-        <v>126.0127206626187</v>
+        <v>126.0127206626219</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>9.93445162528792</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="C4" t="n">
-        <v>119.7634544769311</v>
+        <v>119.763454476932</v>
       </c>
       <c r="D4" t="n">
-        <v>257.1074976216016</v>
+        <v>257.1074976216005</v>
       </c>
       <c r="E4" t="n">
-        <v>365.1385034278866</v>
+        <v>365.138503427884</v>
       </c>
       <c r="F4" t="n">
-        <v>154.4219547980808</v>
+        <v>154.4219547980847</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,22 +27030,22 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>12.56299777364188</v>
+        <v>12.5629977736412</v>
       </c>
       <c r="J4" t="n">
-        <v>263.713880001506</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="K4" t="n">
-        <v>119.7634544769311</v>
+        <v>119.763454476932</v>
       </c>
       <c r="L4" t="n">
-        <v>257.1074976216018</v>
+        <v>257.1074976216007</v>
       </c>
       <c r="M4" t="n">
-        <v>365.1385034278866</v>
+        <v>365.1385034278837</v>
       </c>
       <c r="N4" t="n">
-        <v>154.4219547980808</v>
+        <v>154.4219547980847</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="K4" t="n">
-        <v>119.7634544769311</v>
+        <v>119.763454476932</v>
       </c>
       <c r="L4" t="n">
-        <v>257.1074976216016</v>
+        <v>257.1074976216005</v>
       </c>
       <c r="M4" t="n">
-        <v>365.1385034278866</v>
+        <v>365.138503427884</v>
       </c>
       <c r="N4" t="n">
-        <v>154.4219547980808</v>
+        <v>154.4219547980847</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
         <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>68.11956169855995</v>
+        <v>115.1832933522297</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>85.52708871590676</v>
       </c>
       <c r="X2" t="n">
         <v>106.0172206769628</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>122.5240586545473</v>
       </c>
     </row>
     <row r="3">
@@ -27455,28 +27455,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>19.57482942057302</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,22 +27503,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
         <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>8.628705895720373</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>143.1758180042894</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
         <v>223.2143458795659</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>164.668978947956</v>
       </c>
     </row>
     <row r="5">
@@ -27622,16 +27622,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>28.94238459032044</v>
+        <v>77.65039306776907</v>
       </c>
       <c r="H5" t="n">
-        <v>272.2295909190011</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>143.3232867394217</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>210.4754363151146</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1150114321263</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>2.760604177615335</v>
       </c>
     </row>
     <row r="6">
@@ -27692,28 +27692,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>69.31041554810514</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>36.28687735603345</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,16 +27743,16 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>143.0309654321256</v>
       </c>
       <c r="T6" t="n">
-        <v>193.9471662361903</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.839898471748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>119.986103918801</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.6977565348686</v>
       </c>
       <c r="H7" t="n">
-        <v>134.3135061315345</v>
+        <v>150.7292459486106</v>
       </c>
       <c r="I7" t="n">
         <v>116.559737650565</v>
@@ -27828,16 +27828,16 @@
         <v>222.4200010002144</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2484899297496</v>
+        <v>79.95600565898155</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>84.06429348237398</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>43.67336544387486</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>110.0690483121601</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>41.19755241469785</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28062,19 +28062,19 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>1.257660642295377e-12</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29733,7 +29733,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>-4.171241130279668e-12</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -29809,7 +29809,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>1.101162712102587e-12</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -29952,7 +29952,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>-3.652189661806915e-12</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2.999275869540122e-13</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30639,7 +30639,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>-9.947598300641403e-13</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30709,7 +30709,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>-6.573027348075449e-14</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -30885,7 +30885,7 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>2.501110429875553e-12</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.883018446377338</v>
+        <v>2.883018446377341</v>
       </c>
       <c r="H5" t="n">
-        <v>29.52571266396192</v>
+        <v>29.52571266396195</v>
       </c>
       <c r="I5" t="n">
-        <v>111.1475686539624</v>
+        <v>111.1475686539625</v>
       </c>
       <c r="J5" t="n">
-        <v>244.6925868632188</v>
+        <v>244.692586863219</v>
       </c>
       <c r="K5" t="n">
-        <v>366.7307576983716</v>
+        <v>366.730757698372</v>
       </c>
       <c r="L5" t="n">
-        <v>454.9619334766921</v>
+        <v>454.9619334766926</v>
       </c>
       <c r="M5" t="n">
-        <v>506.232812772455</v>
+        <v>506.2328127724556</v>
       </c>
       <c r="N5" t="n">
-        <v>514.4241889332247</v>
+        <v>514.4241889332253</v>
       </c>
       <c r="O5" t="n">
-        <v>485.75617425706</v>
+        <v>485.7561742570605</v>
       </c>
       <c r="P5" t="n">
-        <v>414.5816563621194</v>
+        <v>414.5816563621199</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.333558251231</v>
+        <v>311.3335582512313</v>
       </c>
       <c r="R5" t="n">
-        <v>181.1004074822506</v>
+        <v>181.1004074822508</v>
       </c>
       <c r="S5" t="n">
-        <v>65.69678284682365</v>
+        <v>65.69678284682372</v>
       </c>
       <c r="T5" t="n">
-        <v>12.6204132490168</v>
+        <v>12.62041324901682</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2306414757101869</v>
+        <v>0.2306414757101872</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.542550860248027</v>
+        <v>1.542550860248028</v>
       </c>
       <c r="H6" t="n">
-        <v>14.89779383450068</v>
+        <v>14.8977938345007</v>
       </c>
       <c r="I6" t="n">
-        <v>53.10975549538163</v>
+        <v>53.10975549538168</v>
       </c>
       <c r="J6" t="n">
-        <v>145.7372284236963</v>
+        <v>145.7372284236964</v>
       </c>
       <c r="K6" t="n">
-        <v>249.088136060314</v>
+        <v>249.0881360603143</v>
       </c>
       <c r="L6" t="n">
-        <v>334.9297383183271</v>
+        <v>334.9297383183275</v>
       </c>
       <c r="M6" t="n">
-        <v>390.8472070023179</v>
+        <v>390.8472070023184</v>
       </c>
       <c r="N6" t="n">
-        <v>401.1917695695076</v>
+        <v>401.191769569508</v>
       </c>
       <c r="O6" t="n">
-        <v>367.0120899819066</v>
+        <v>367.012089981907</v>
       </c>
       <c r="P6" t="n">
-        <v>294.5595585678886</v>
+        <v>294.5595585678889</v>
       </c>
       <c r="Q6" t="n">
-        <v>196.9052641958709</v>
+        <v>196.9052641958712</v>
       </c>
       <c r="R6" t="n">
-        <v>95.77346481434682</v>
+        <v>95.77346481434692</v>
       </c>
       <c r="S6" t="n">
-        <v>28.65220567171223</v>
+        <v>28.65220567171226</v>
       </c>
       <c r="T6" t="n">
-        <v>6.217562458631298</v>
+        <v>6.217562458631305</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1014836092268439</v>
+        <v>0.101483609226844</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.293222823590163</v>
+        <v>1.293222823590165</v>
       </c>
       <c r="H7" t="n">
-        <v>11.49792655882891</v>
+        <v>11.49792655882893</v>
       </c>
       <c r="I7" t="n">
-        <v>38.89073727669328</v>
+        <v>38.89073727669332</v>
       </c>
       <c r="J7" t="n">
-        <v>91.43085362782453</v>
+        <v>91.43085362782463</v>
       </c>
       <c r="K7" t="n">
-        <v>150.2489789589298</v>
+        <v>150.24897895893</v>
       </c>
       <c r="L7" t="n">
-        <v>192.2669641544867</v>
+        <v>192.2669641544869</v>
       </c>
       <c r="M7" t="n">
-        <v>202.7185558833198</v>
+        <v>202.7185558833201</v>
       </c>
       <c r="N7" t="n">
-        <v>197.8983617226657</v>
+        <v>197.898361722666</v>
       </c>
       <c r="O7" t="n">
-        <v>182.7911678289078</v>
+        <v>182.791167828908</v>
       </c>
       <c r="P7" t="n">
-        <v>156.4094222276684</v>
+        <v>156.4094222276686</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.2897766189909</v>
+        <v>108.289776618991</v>
       </c>
       <c r="R7" t="n">
-        <v>58.14800077706314</v>
+        <v>58.1480007770632</v>
       </c>
       <c r="S7" t="n">
-        <v>22.53734684383947</v>
+        <v>22.5373468438395</v>
       </c>
       <c r="T7" t="n">
-        <v>5.525588428067059</v>
+        <v>5.525588428067065</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0705394267412817</v>
+        <v>0.07053942674128179</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,34 +31607,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.952877700718657</v>
+        <v>4.952877700718648</v>
       </c>
       <c r="H11" t="n">
-        <v>50.72365875248496</v>
+        <v>50.72365875248486</v>
       </c>
       <c r="I11" t="n">
-        <v>190.9458175569562</v>
+        <v>190.9458175569558</v>
       </c>
       <c r="J11" t="n">
-        <v>420.3693037513705</v>
+        <v>420.3693037513697</v>
       </c>
       <c r="K11" t="n">
-        <v>630.0246168227914</v>
+        <v>630.0246168227901</v>
       </c>
       <c r="L11" t="n">
-        <v>781.6012477561602</v>
+        <v>781.6012477561586</v>
       </c>
       <c r="M11" t="n">
-        <v>869.6819865663156</v>
+        <v>869.6819865663138</v>
       </c>
       <c r="N11" t="n">
-        <v>883.7543503334825</v>
+        <v>883.7543503334807</v>
       </c>
       <c r="O11" t="n">
-        <v>834.5041726969613</v>
+        <v>834.5041726969596</v>
       </c>
       <c r="P11" t="n">
-        <v>712.2300044604693</v>
+        <v>712.2300044604679</v>
       </c>
       <c r="Q11" t="n">
-        <v>534.8550718034822</v>
+        <v>534.8550718034812</v>
       </c>
       <c r="R11" t="n">
-        <v>311.1212038677687</v>
+        <v>311.121203867768</v>
       </c>
       <c r="S11" t="n">
-        <v>112.8637006051265</v>
+        <v>112.8637006051263</v>
       </c>
       <c r="T11" t="n">
-        <v>21.68122213489593</v>
+        <v>21.68122213489589</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3962302160574925</v>
+        <v>0.3962302160574917</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.650023196191122</v>
+        <v>2.650023196191116</v>
       </c>
       <c r="H12" t="n">
-        <v>25.59364507900373</v>
+        <v>25.59364507900368</v>
       </c>
       <c r="I12" t="n">
-        <v>91.23983372851011</v>
+        <v>91.23983372850992</v>
       </c>
       <c r="J12" t="n">
-        <v>250.3690774962849</v>
+        <v>250.3690774962844</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>427.9206316410891</v>
       </c>
       <c r="L12" t="n">
-        <v>575.3920979273749</v>
+        <v>575.3920979273737</v>
       </c>
       <c r="M12" t="n">
-        <v>449.2384245330973</v>
+        <v>671.4554387893015</v>
       </c>
       <c r="N12" t="n">
-        <v>689.2268662760408</v>
+        <v>689.2268662760395</v>
       </c>
       <c r="O12" t="n">
-        <v>630.507931244648</v>
+        <v>630.5079312446468</v>
       </c>
       <c r="P12" t="n">
-        <v>506.038201384952</v>
+        <v>210.8877491630368</v>
       </c>
       <c r="Q12" t="n">
-        <v>338.2731364120456</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>164.5338963389541</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>49.22301857837452</v>
+        <v>49.22301857837442</v>
       </c>
       <c r="T12" t="n">
-        <v>10.68145314605105</v>
+        <v>10.68145314605103</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1743436313283633</v>
+        <v>0.174343631328363</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.22169042763794</v>
+        <v>2.221690427637935</v>
       </c>
       <c r="H13" t="n">
-        <v>19.75284762027188</v>
+        <v>19.75284762027184</v>
       </c>
       <c r="I13" t="n">
-        <v>66.81229031478462</v>
+        <v>66.81229031478449</v>
       </c>
       <c r="J13" t="n">
-        <v>157.0735132340023</v>
+        <v>157.073513234002</v>
       </c>
       <c r="K13" t="n">
-        <v>258.120033320117</v>
+        <v>258.1200333201165</v>
       </c>
       <c r="L13" t="n">
-        <v>330.3047750326443</v>
+        <v>330.3047750326437</v>
       </c>
       <c r="M13" t="n">
-        <v>348.2600731251</v>
+        <v>348.2600731250993</v>
       </c>
       <c r="N13" t="n">
-        <v>339.9792269857224</v>
+        <v>339.9792269857218</v>
       </c>
       <c r="O13" t="n">
-        <v>314.02584335377</v>
+        <v>314.0258433537694</v>
       </c>
       <c r="P13" t="n">
-        <v>268.7033586299559</v>
+        <v>268.7033586299553</v>
       </c>
       <c r="Q13" t="n">
-        <v>186.0362775361188</v>
+        <v>186.0362775361184</v>
       </c>
       <c r="R13" t="n">
-        <v>99.89528050088408</v>
+        <v>99.89528050088389</v>
       </c>
       <c r="S13" t="n">
-        <v>38.71800499801754</v>
+        <v>38.71800499801746</v>
       </c>
       <c r="T13" t="n">
-        <v>9.492677281725742</v>
+        <v>9.492677281725722</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1211831142347969</v>
+        <v>0.1211831142347966</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377428</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122285</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>210.475889570406</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874066</v>
       </c>
       <c r="K14" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830433</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364267</v>
       </c>
       <c r="M14" t="n">
-        <v>958.6336695293307</v>
+        <v>958.6336695293313</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229612</v>
       </c>
       <c r="O14" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086956</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687527</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148609</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987165</v>
       </c>
       <c r="S14" t="n">
-        <v>124.4074789854257</v>
+        <v>124.4074789854258</v>
       </c>
       <c r="T14" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U14" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901942</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540907</v>
       </c>
       <c r="H15" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088192</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>275.9770021735818</v>
+        <v>275.9770021735819</v>
       </c>
       <c r="K15" t="n">
-        <v>471.6886536848224</v>
+        <v>471.6886536848226</v>
       </c>
       <c r="L15" t="n">
-        <v>634.2436048745724</v>
+        <v>634.2436048745727</v>
       </c>
       <c r="M15" t="n">
-        <v>740.1323715504301</v>
+        <v>672.0481308502326</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927637</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>153.7812479945281</v>
+        <v>694.9967242426209</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982455</v>
       </c>
       <c r="Q15" t="n">
-        <v>372.8719498286952</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>181.3625385436713</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862163</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013755</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291844</v>
       </c>
       <c r="H16" t="n">
-        <v>21.77318271548567</v>
+        <v>21.77318271548568</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284929</v>
       </c>
       <c r="J16" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273334</v>
       </c>
       <c r="K16" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900887</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640618</v>
+        <v>364.088578864062</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265024</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416876</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465964</v>
       </c>
       <c r="P16" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282425</v>
       </c>
       <c r="Q16" t="n">
-        <v>205.0641983561742</v>
+        <v>205.0641983561743</v>
       </c>
       <c r="R16" t="n">
-        <v>110.1126397860859</v>
+        <v>110.112639786086</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851328</v>
+        <v>42.6781096785133</v>
       </c>
       <c r="T16" t="n">
         <v>10.46359496551969</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1335778080704644</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377427</v>
       </c>
       <c r="H17" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122284</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>210.475889570406</v>
       </c>
       <c r="J17" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874066</v>
       </c>
       <c r="K17" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830432</v>
       </c>
       <c r="L17" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364266</v>
       </c>
       <c r="M17" t="n">
-        <v>958.6336695293307</v>
+        <v>958.6336695293311</v>
       </c>
       <c r="N17" t="n">
-        <v>974.1453645229608</v>
+        <v>974.145364522961</v>
       </c>
       <c r="O17" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086955</v>
       </c>
       <c r="P17" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687526</v>
       </c>
       <c r="Q17" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148608</v>
       </c>
       <c r="R17" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S17" t="n">
-        <v>124.4074789854257</v>
+        <v>124.4074789854258</v>
       </c>
       <c r="T17" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U17" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901941</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540906</v>
       </c>
       <c r="H18" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I18" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>139.4267020936829</v>
+        <v>275.9770021735819</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848226</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745726</v>
       </c>
       <c r="M18" t="n">
-        <v>740.1323715504301</v>
+        <v>672.0481308502331</v>
       </c>
       <c r="N18" t="n">
-        <v>759.7214730927637</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>694.9967242426204</v>
+        <v>694.9967242426206</v>
       </c>
       <c r="P18" t="n">
-        <v>557.7961431982453</v>
+        <v>557.7961431982455</v>
       </c>
       <c r="Q18" t="n">
-        <v>372.8719498286952</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>181.3625385436713</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T18" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013755</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,40 +32385,40 @@
         <v>2.448926481291843</v>
       </c>
       <c r="H19" t="n">
-        <v>21.77318271548567</v>
+        <v>21.77318271548568</v>
       </c>
       <c r="I19" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284928</v>
       </c>
       <c r="J19" t="n">
         <v>173.1391022273333</v>
       </c>
       <c r="K19" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900887</v>
       </c>
       <c r="L19" t="n">
-        <v>364.0885788640618</v>
+        <v>364.088578864062</v>
       </c>
       <c r="M19" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265023</v>
       </c>
       <c r="N19" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416876</v>
       </c>
       <c r="O19" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465964</v>
       </c>
       <c r="P19" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282425</v>
       </c>
       <c r="Q19" t="n">
-        <v>205.0641983561742</v>
+        <v>205.0641983561743</v>
       </c>
       <c r="R19" t="n">
         <v>110.1126397860859</v>
       </c>
       <c r="S19" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T19" t="n">
         <v>10.46359496551969</v>
@@ -32546,10 +32546,10 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I21" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K21" t="n">
         <v>471.6886536848224</v>
@@ -32558,19 +32558,19 @@
         <v>634.2436048745725</v>
       </c>
       <c r="M21" t="n">
-        <v>382.6897775359062</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N21" t="n">
         <v>759.7214730927639</v>
       </c>
       <c r="O21" t="n">
-        <v>694.9967242426205</v>
+        <v>422.3544583169084</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32792,22 +32792,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>277.4567226539314</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33020,31 +33020,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>575.5951359912046</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>386.7287743289961</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33269,22 +33269,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>303.4297552732313</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,7 +33497,7 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33509,19 +33509,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>485.1127032082914</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33743,22 +33743,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>301.1823051500301</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33980,22 +33980,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>539.0475940357389</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,13 +34205,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34220,19 +34220,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>320.9147064709964</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,13 +34442,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34457,19 +34457,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>320.9147064709964</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34796,7 +34796,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.9385470877689</v>
+        <v>125.9385470877691</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.64668233653251</v>
+        <v>63.64668233653276</v>
       </c>
       <c r="K5" t="n">
-        <v>146.640906653391</v>
+        <v>146.6409066533914</v>
       </c>
       <c r="L5" t="n">
-        <v>219.1955185067048</v>
+        <v>219.1955185067054</v>
       </c>
       <c r="M5" t="n">
-        <v>275.8865795451823</v>
+        <v>275.8865795451828</v>
       </c>
       <c r="N5" t="n">
-        <v>285.0111253366338</v>
+        <v>285.0111253366344</v>
       </c>
       <c r="O5" t="n">
-        <v>255.6579628353733</v>
+        <v>255.6579628353738</v>
       </c>
       <c r="P5" t="n">
-        <v>183.3486606068499</v>
+        <v>183.3486606068503</v>
       </c>
       <c r="Q5" t="n">
-        <v>89.02786837678147</v>
+        <v>89.02786837678181</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>18.89960175702956</v>
+        <v>18.89960175702973</v>
       </c>
       <c r="K6" t="n">
-        <v>111.246697085955</v>
+        <v>342.6526265346239</v>
       </c>
       <c r="L6" t="n">
-        <v>196.3753585384529</v>
+        <v>196.3753585384533</v>
       </c>
       <c r="M6" t="n">
-        <v>248.7131730802996</v>
+        <v>248.7131730803001</v>
       </c>
       <c r="N6" t="n">
-        <v>383.4773344784373</v>
+        <v>269.8500574861747</v>
       </c>
       <c r="O6" t="n">
-        <v>224.4158455374621</v>
+        <v>224.4158455374625</v>
       </c>
       <c r="P6" t="n">
-        <v>160.5851511535583</v>
+        <v>160.5851511535586</v>
       </c>
       <c r="Q6" t="n">
-        <v>174.7021425662535</v>
+        <v>56.92349010984964</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>127.979487133047</v>
+        <v>127.9794871330471</v>
       </c>
       <c r="L7" t="n">
-        <v>219.8569894148028</v>
+        <v>219.856989414803</v>
       </c>
       <c r="M7" t="n">
-        <v>242.3024328451604</v>
+        <v>242.3024328451606</v>
       </c>
       <c r="N7" t="n">
-        <v>242.0305341018943</v>
+        <v>242.0305341018945</v>
       </c>
       <c r="O7" t="n">
-        <v>207.3762957429475</v>
+        <v>207.3762957429477</v>
       </c>
       <c r="P7" t="n">
-        <v>153.6879814925619</v>
+        <v>153.687981492562</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.12773336729647</v>
+        <v>22.12773336729659</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
         <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>562.7107934893646</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>490.1260733652761</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>239.3233992246842</v>
+        <v>239.3233992246834</v>
       </c>
       <c r="K11" t="n">
-        <v>409.9347657778108</v>
+        <v>409.9347657778096</v>
       </c>
       <c r="L11" t="n">
-        <v>545.8348327861729</v>
+        <v>545.8348327861713</v>
       </c>
       <c r="M11" t="n">
-        <v>639.3357533390429</v>
+        <v>639.335753339041</v>
       </c>
       <c r="N11" t="n">
-        <v>654.3412867368916</v>
+        <v>654.3412867368897</v>
       </c>
       <c r="O11" t="n">
-        <v>604.4059612752745</v>
+        <v>604.4059612752728</v>
       </c>
       <c r="P11" t="n">
-        <v>480.9970087051998</v>
+        <v>480.9970087051983</v>
       </c>
       <c r="Q11" t="n">
-        <v>312.5493819290327</v>
+        <v>312.5493819290317</v>
       </c>
       <c r="R11" t="n">
-        <v>95.53566605363653</v>
+        <v>95.53566605363585</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>123.5314508296182</v>
+        <v>123.5314508296177</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>290.0791926667301</v>
       </c>
       <c r="L12" t="n">
-        <v>436.8377181475008</v>
+        <v>436.8377181474995</v>
       </c>
       <c r="M12" t="n">
-        <v>307.1043906110789</v>
+        <v>529.3214048672833</v>
       </c>
       <c r="N12" t="n">
-        <v>557.8851541927075</v>
+        <v>557.8851541927062</v>
       </c>
       <c r="O12" t="n">
-        <v>487.9116868002036</v>
+        <v>487.9116868002023</v>
       </c>
       <c r="P12" t="n">
-        <v>372.0637939706218</v>
+        <v>76.91334174870656</v>
       </c>
       <c r="Q12" t="n">
-        <v>198.2913623260241</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>18.85439237499011</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>63.71433311732957</v>
+        <v>63.71433311732926</v>
       </c>
       <c r="K13" t="n">
-        <v>235.8505414942341</v>
+        <v>235.8505414942336</v>
       </c>
       <c r="L13" t="n">
-        <v>357.8948002929604</v>
+        <v>357.8948002929599</v>
       </c>
       <c r="M13" t="n">
-        <v>387.8439500869405</v>
+        <v>387.8439500869399</v>
       </c>
       <c r="N13" t="n">
-        <v>384.111399364951</v>
+        <v>384.1113993649503</v>
       </c>
       <c r="O13" t="n">
-        <v>338.6109712678097</v>
+        <v>338.6109712678091</v>
       </c>
       <c r="P13" t="n">
-        <v>265.9819178948493</v>
+        <v>265.9819178948488</v>
       </c>
       <c r="Q13" t="n">
-        <v>99.87423428442442</v>
+        <v>99.87423428442405</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607204</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380628</v>
       </c>
       <c r="L14" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664395</v>
       </c>
       <c r="M14" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020586</v>
       </c>
       <c r="N14" t="n">
-        <v>744.7323009263698</v>
+        <v>744.7323009263703</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870089</v>
       </c>
       <c r="P14" t="n">
-        <v>553.8443926134828</v>
+        <v>553.8443926134833</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404114</v>
       </c>
       <c r="R14" t="n">
-        <v>127.3573607845841</v>
+        <v>127.3573607845843</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>149.1393755069151</v>
+        <v>149.1393755069152</v>
       </c>
       <c r="K15" t="n">
-        <v>333.8472147104634</v>
+        <v>333.8472147104636</v>
       </c>
       <c r="L15" t="n">
-        <v>495.6892250946982</v>
+        <v>495.6892250946985</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284117</v>
+        <v>529.9140969282142</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094305</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>11.18500355008366</v>
+        <v>552.4004797981764</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>423.8217357839153</v>
       </c>
       <c r="Q15" t="n">
-        <v>232.8901757426737</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>35.6830345797074</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066058</v>
       </c>
       <c r="K16" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642058</v>
       </c>
       <c r="L16" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243781</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883427</v>
+        <v>423.464234388343</v>
       </c>
       <c r="N16" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209162</v>
       </c>
       <c r="O16" t="n">
-        <v>370.7297545606359</v>
+        <v>370.7297545606361</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931358</v>
+        <v>293.465085693136</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607203</v>
       </c>
       <c r="K17" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380627</v>
       </c>
       <c r="L17" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M17" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020584</v>
       </c>
       <c r="N17" t="n">
-        <v>744.7323009263698</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O17" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870087</v>
       </c>
       <c r="P17" t="n">
-        <v>553.8443926134828</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q17" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404113</v>
       </c>
       <c r="R17" t="n">
-        <v>127.3573607845841</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.049527853053107</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>12.58907542701622</v>
+        <v>149.1393755069152</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>333.8472147104636</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>495.6892250946984</v>
       </c>
       <c r="M18" t="n">
-        <v>597.9983376284117</v>
+        <v>529.9140969282147</v>
       </c>
       <c r="N18" t="n">
-        <v>628.3797610094305</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>552.400479798176</v>
+        <v>552.4004797981762</v>
       </c>
       <c r="P18" t="n">
-        <v>423.8217357839151</v>
+        <v>423.8217357839153</v>
       </c>
       <c r="Q18" t="n">
-        <v>232.8901757426737</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>35.6830345797074</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066055</v>
       </c>
       <c r="K19" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642058</v>
       </c>
       <c r="L19" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243781</v>
       </c>
       <c r="M19" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N19" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209162</v>
       </c>
       <c r="O19" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P19" t="n">
-        <v>293.4650856931358</v>
+        <v>293.465085693136</v>
       </c>
       <c r="Q19" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36194,10 +36194,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.049527853053121</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K21" t="n">
         <v>333.8472147104634</v>
@@ -36206,19 +36206,19 @@
         <v>495.6892250946983</v>
       </c>
       <c r="M21" t="n">
-        <v>240.5557436138879</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N21" t="n">
         <v>628.3797610094306</v>
       </c>
       <c r="O21" t="n">
-        <v>552.4004797981761</v>
+        <v>279.758213872464</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,22 +36440,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>138.9023428740572</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36668,31 +36668,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>433.4611020691863</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>244.1325298845517</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36917,22 +36917,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>160.8335108287869</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37157,19 +37157,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>342.516458763847</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37391,22 +37391,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>159.0482712280117</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37628,22 +37628,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>396.4513495912944</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37868,19 +37868,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>189.5729943876631</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295236</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38105,19 +38105,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>189.5729943876631</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38181,7 +38181,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010476</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
